--- a/test/test_polars.xlsx
+++ b/test/test_polars.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krakotay\Documents\rust\xlsx-quick-append-rs\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krakotay\Documents\rust\excelsior\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113E3AB3-382A-4B7B-8A49-4A07E56AE009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E89439-721D-4D61-8E0D-48A9139C4163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>s</t>
   </si>
@@ -35,12 +34,6 @@
   </si>
   <si>
     <t>f</t>
-  </si>
-  <si>
-    <t>fd</t>
-  </si>
-  <si>
-    <t>g</t>
   </si>
 </sst>
 </file>
@@ -360,8 +353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,39 +385,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A4555D-69D8-4026-9C01-CC223E6C8766}">
-  <dimension ref="C11:I24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>